--- a/biology/Botanique/Manfreda/Manfreda.xlsx
+++ b/biology/Botanique/Manfreda/Manfreda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Manfreda est un genre de plantes à fleurs de la famille des Asparagaceae, sous-famille des Agavoideae[2]. Avec Polianthes, les membres sont communément appelés tubéreuses. Le nom générique honore l'écrivain italien du XIVe siècle Manfredus de Monte Imperiale[3].
-Certaines autorités[4]  placent Manfreda dans le genre Polianthes, tandis que d'autres groupes[5] insèrent ces deux genres ainsi que le genre Prochnyanthes dans le genre Agave. Le site Kew WCSP considère d'ailleurs Manfreda,Polianthes et Prochnyanthes  comme des synonymes d’Agave. Vous pouvez trouver les noms d’espèces reconnues à partir de ces anciens genre avec les accès au site WCSP (voir Références).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manfreda est un genre de plantes à fleurs de la famille des Asparagaceae, sous-famille des Agavoideae. Avec Polianthes, les membres sont communément appelés tubéreuses. Le nom générique honore l'écrivain italien du XIVe siècle Manfredus de Monte Imperiale.
+Certaines autorités  placent Manfreda dans le genre Polianthes, tandis que d'autres groupes insèrent ces deux genres ainsi que le genre Prochnyanthes dans le genre Agave. Le site Kew WCSP considère d'ailleurs Manfreda,Polianthes et Prochnyanthes  comme des synonymes d’Agave. Vous pouvez trouver les noms d’espèces reconnues à partir de ces anciens genre avec les accès au site WCSP (voir Références).
 Ce genre est originaire  du sud des États-Unis, du Mexique et d'Amérique centrale.
 Comme d'autres dans sa famille, les tubéreuses ont des rosettes de feuilles basales qui se ramifient, et des fleurs à l'extrémité d'une longue tige. Les fleurs sont tubulaires et blanchâtre, jaune, vert ou brune, avec de longues étamines.
-Le Manfreda tacheté , également appelé tubéreuse du Texas (Manfreda maculosa qui est un synonyme de Agave maculata ) est remarquable par le vert argenté de ses feuilles couvertes  de taches pourpres, c'est une plante  populaire des paysages  xérophiles dans le sud-ouest des États-Unis[6].
+Le Manfreda tacheté , également appelé tubéreuse du Texas (Manfreda maculosa qui est un synonyme de Agave maculata ) est remarquable par le vert argenté de ses feuilles couvertes  de taches pourpres, c'est une plante  populaire des paysages  xérophiles dans le sud-ouest des États-Unis.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Espèces acceptées d’après ITIS en 2010[7],[8] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Espèces acceptées d’après ITIS en 2010, :
 Manfreda brunnea  (S.Watson) Rose - Tamaulipas
 Manfreda bulbulifera Castillejos &amp; E.Solano - Guerrero
 Manfreda chamelensis E.J.Lott &amp; Verh.-Will. - Jalisco
